--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="143">
   <si>
     <t>ModuleName</t>
   </si>
@@ -186,9 +189,6 @@
     <t>User3RecId</t>
   </si>
   <si>
-    <t>one,two</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
@@ -204,9 +204,6 @@
     <t>CRMModOnlyonFirstSave</t>
   </si>
   <si>
-    <t>2023-12-28</t>
-  </si>
-  <si>
     <t>EditRecText</t>
   </si>
   <si>
@@ -273,187 +270,187 @@
     <t>02:35PM</t>
   </si>
   <si>
-    <t>2023-12-28 06:00 PM</t>
-  </si>
-  <si>
-    <t>448733674</t>
-  </si>
-  <si>
-    <t>448733675</t>
-  </si>
-  <si>
-    <t>448733677</t>
-  </si>
-  <si>
     <t>Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation.</t>
   </si>
   <si>
-    <t>448736048</t>
-  </si>
-  <si>
-    <t>448736049</t>
-  </si>
-  <si>
-    <t>448736050</t>
-  </si>
-  <si>
-    <t>8275103280</t>
-  </si>
-  <si>
-    <t>5284092930</t>
-  </si>
-  <si>
-    <t>9495466597</t>
-  </si>
-  <si>
-    <t>2940146727</t>
-  </si>
-  <si>
-    <t>1270726492</t>
-  </si>
-  <si>
-    <t>7682084414</t>
-  </si>
-  <si>
-    <t>2007546179</t>
-  </si>
-  <si>
-    <t>1378461202</t>
-  </si>
-  <si>
-    <t>5990057889</t>
-  </si>
-  <si>
-    <t>7628431037</t>
-  </si>
-  <si>
-    <t>0198228990</t>
-  </si>
-  <si>
-    <t>2132152125</t>
-  </si>
-  <si>
-    <t>1891247535</t>
-  </si>
-  <si>
-    <t>1694609156</t>
-  </si>
-  <si>
-    <t>7075164882</t>
-  </si>
-  <si>
-    <t>8724699887</t>
-  </si>
-  <si>
-    <t>8666782812</t>
-  </si>
-  <si>
-    <t>1221481314</t>
-  </si>
-  <si>
-    <t>8356793810</t>
-  </si>
-  <si>
-    <t>6194687039</t>
-  </si>
-  <si>
-    <t>4146819952</t>
-  </si>
-  <si>
-    <t>0033185349</t>
-  </si>
-  <si>
-    <t>4266652004</t>
-  </si>
-  <si>
-    <t>2585425758</t>
-  </si>
-  <si>
-    <t>0597430148</t>
-  </si>
-  <si>
-    <t>9157299699</t>
-  </si>
-  <si>
-    <t>3872785416</t>
-  </si>
-  <si>
-    <t>1468304356</t>
-  </si>
-  <si>
-    <t>9010945146</t>
-  </si>
-  <si>
-    <t>2335544851</t>
-  </si>
-  <si>
-    <t>2453819115</t>
-  </si>
-  <si>
-    <t>1457530886</t>
-  </si>
-  <si>
-    <t>4971081735</t>
-  </si>
-  <si>
-    <t>5544610164</t>
-  </si>
-  <si>
-    <t>7676426386</t>
-  </si>
-  <si>
-    <t>1860536389</t>
-  </si>
-  <si>
-    <t>1836870486</t>
-  </si>
-  <si>
-    <t>2732674029</t>
-  </si>
-  <si>
-    <t>3550502817</t>
-  </si>
-  <si>
-    <t>5866486724</t>
-  </si>
-  <si>
-    <t>2495649534</t>
-  </si>
-  <si>
-    <t>5317472856</t>
-  </si>
-  <si>
-    <t>7426300339</t>
-  </si>
-  <si>
-    <t>6614140682</t>
-  </si>
-  <si>
-    <t>5835078936</t>
-  </si>
-  <si>
-    <t>9209142290</t>
-  </si>
-  <si>
-    <t>1299541171</t>
-  </si>
-  <si>
-    <t>7856428484</t>
-  </si>
-  <si>
-    <t>5632327871</t>
-  </si>
-  <si>
-    <t>8874657870</t>
-  </si>
-  <si>
-    <t>4125082214</t>
-  </si>
-  <si>
-    <t>9328315247</t>
-  </si>
-  <si>
-    <t>8196705835</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>WF6_Send_SMS_ETR_M</t>
+  </si>
+  <si>
+    <t>New Add Text : Testing ETR_M</t>
+  </si>
+  <si>
+    <t>2503380077</t>
+  </si>
+  <si>
+    <t>sudhavijayarag@gmail.com</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-01-03 05:00 PM</t>
+  </si>
+  <si>
+    <t>Annie spratt</t>
+  </si>
+  <si>
+    <t>secondadd@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new text added </t>
+  </si>
+  <si>
+    <t>2562299660</t>
+  </si>
+  <si>
+    <t>Every time the record is modified</t>
+  </si>
+  <si>
+    <t>SMSTriiggerETRM</t>
+  </si>
+  <si>
+    <t>2430732637</t>
+  </si>
+  <si>
+    <t>CRM_Lead@text.com</t>
+  </si>
+  <si>
+    <t>Lead Text</t>
+  </si>
+  <si>
+    <t>2774830371</t>
+  </si>
+  <si>
+    <t>Sales@rsoft.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+  </si>
+  <si>
+    <t>Testing ETR_M</t>
+  </si>
+  <si>
+    <t>sv@bluecrimson.in</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>Ozar</t>
+  </si>
+  <si>
+    <t>Telengana</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>http://www.rsoft.com</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>DuplcateEqnury@gmail.com</t>
+  </si>
+  <si>
+    <t>Enquired about project</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>CRMDuplicateLead@rsoft.in</t>
+  </si>
+  <si>
+    <t>Sample duplicate lead Text</t>
+  </si>
+  <si>
+    <t>EditSudhakar@rsoft.in</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Edit Test Names</t>
+  </si>
+  <si>
+    <t>EditEnquiry@test.com</t>
+  </si>
+  <si>
+    <t>Enquired about income</t>
+  </si>
+  <si>
+    <t>EditLead@rsoft.in</t>
+  </si>
+  <si>
+    <t>Edit Lead Sample Text</t>
+  </si>
+  <si>
+    <t>EditSales@rsoft.in</t>
+  </si>
+  <si>
+    <t>9829627012</t>
+  </si>
+  <si>
+    <t>0363970741</t>
+  </si>
+  <si>
+    <t>9511485768</t>
+  </si>
+  <si>
+    <t>8542584760</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>2024-01-04 12:00 PM</t>
+  </si>
+  <si>
+    <t>2012757811</t>
+  </si>
+  <si>
+    <t>4547407447</t>
+  </si>
+  <si>
+    <t>4791991493</t>
+  </si>
+  <si>
+    <t>0235960440</t>
+  </si>
+  <si>
+    <t>2024-01-04 01:00 PM</t>
+  </si>
+  <si>
+    <t>5653719228</t>
+  </si>
+  <si>
+    <t>1823461566</t>
+  </si>
+  <si>
+    <t>5336916221</t>
+  </si>
+  <si>
+    <t>6755168985</t>
+  </si>
+  <si>
+    <t>2024-01-04 02:00 PM</t>
   </si>
 </sst>
 </file>
@@ -790,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,16 +946,16 @@
         <v>41</v>
       </c>
       <c r="AK1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AM1" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="AL1" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="AM1" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="AN1" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AO1" t="s" s="0">
         <v>53</v>
@@ -967,42 +964,42 @@
         <v>54</v>
       </c>
       <c r="AQ1" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR1" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AS1" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AW1" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT1" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AX1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AY1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="AW1" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="AX1" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="AY1" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="AZ1" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>48</v>
@@ -1014,7 +1011,7 @@
         <v>46</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
@@ -1023,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>23</v>
@@ -1038,16 +1035,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>44444444444</v>
+        <v>142</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>49</v>
@@ -1068,13 +1062,13 @@
         <v>50</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>51</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>35</v>
@@ -1083,64 +1077,58 @@
         <v>52</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AF2" t="s" s="0">
         <v>45</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="AL2" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="AM2" t="s" s="0">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR2" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1153,4 +1141,1070 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.36328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="0">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="U2" s="0">
+        <v>44444444444</v>
+      </c>
+      <c r="V2" s="3">
+        <v>70000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="0">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="U2" s="0">
+        <v>33333333333</v>
+      </c>
+      <c r="V2" s="3">
+        <v>8000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="0">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="U2" s="0">
+        <v>6666666666</v>
+      </c>
+      <c r="V2" s="3">
+        <v>77777777</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="231">
   <si>
     <t>ModuleName</t>
   </si>
@@ -445,12 +445,283 @@
   </si>
   <si>
     <t>Lead about MobileApp</t>
+  </si>
+  <si>
+    <t>3054496971</t>
+  </si>
+  <si>
+    <t>7570043976</t>
+  </si>
+  <si>
+    <t>2953743365</t>
+  </si>
+  <si>
+    <t>4976436726</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>2024-01-23 12:54:52 PM</t>
+  </si>
+  <si>
+    <t>2024-01-23 01:03:53 PM</t>
+  </si>
+  <si>
+    <t>2089314263</t>
+  </si>
+  <si>
+    <t>6817654930</t>
+  </si>
+  <si>
+    <t>9975749296</t>
+  </si>
+  <si>
+    <t>4262667725</t>
+  </si>
+  <si>
+    <t>9523249659</t>
+  </si>
+  <si>
+    <t>4143219354</t>
+  </si>
+  <si>
+    <t>7854316613</t>
+  </si>
+  <si>
+    <t>0306452229</t>
+  </si>
+  <si>
+    <t>2269141644</t>
+  </si>
+  <si>
+    <t>5352129046</t>
+  </si>
+  <si>
+    <t>6710902693</t>
+  </si>
+  <si>
+    <t>5753084715</t>
+  </si>
+  <si>
+    <t>7581686750</t>
+  </si>
+  <si>
+    <t>0734638139</t>
+  </si>
+  <si>
+    <t>6093294828</t>
+  </si>
+  <si>
+    <t>4849348212</t>
+  </si>
+  <si>
+    <t>2024-01-23 02:50:42 PM</t>
+  </si>
+  <si>
+    <t>2024-01-23 02:58:00 PM</t>
+  </si>
+  <si>
+    <t>0320731177</t>
+  </si>
+  <si>
+    <t>3723286554</t>
+  </si>
+  <si>
+    <t>0107516670</t>
+  </si>
+  <si>
+    <t>2307242326</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 10:45:02 AM</t>
+  </si>
+  <si>
+    <t>3383547892</t>
+  </si>
+  <si>
+    <t>5549313496</t>
+  </si>
+  <si>
+    <t>4410137311</t>
+  </si>
+  <si>
+    <t>1607182956</t>
+  </si>
+  <si>
+    <t>2024-02-16 11:05:20 AM</t>
+  </si>
+  <si>
+    <t>3079717578</t>
+  </si>
+  <si>
+    <t>4302668826</t>
+  </si>
+  <si>
+    <t>1088188534</t>
+  </si>
+  <si>
+    <t>0147255501</t>
+  </si>
+  <si>
+    <t>2024-02-16 11:14:56 AM</t>
+  </si>
+  <si>
+    <t>2024-02-16 11:21:21 AM</t>
+  </si>
+  <si>
+    <t>6662063602</t>
+  </si>
+  <si>
+    <t>1304060830</t>
+  </si>
+  <si>
+    <t>9289789879</t>
+  </si>
+  <si>
+    <t>0473748842</t>
+  </si>
+  <si>
+    <t>2024-02-16 11:35:21 AM</t>
+  </si>
+  <si>
+    <t>2024-02-16 11:41:51 AM</t>
+  </si>
+  <si>
+    <t>6442762697</t>
+  </si>
+  <si>
+    <t>1863802921</t>
+  </si>
+  <si>
+    <t>5569233801</t>
+  </si>
+  <si>
+    <t>6376014794</t>
+  </si>
+  <si>
+    <t>2024-02-16 11:55:33 AM</t>
+  </si>
+  <si>
+    <t>2024-02-16 12:02:04 PM</t>
+  </si>
+  <si>
+    <t>6144307828</t>
+  </si>
+  <si>
+    <t>3999133860</t>
+  </si>
+  <si>
+    <t>7838841250</t>
+  </si>
+  <si>
+    <t>0071638138</t>
+  </si>
+  <si>
+    <t>1982503987</t>
+  </si>
+  <si>
+    <t>5041238076</t>
+  </si>
+  <si>
+    <t>5608599758</t>
+  </si>
+  <si>
+    <t>4337605175</t>
+  </si>
+  <si>
+    <t>4636768556</t>
+  </si>
+  <si>
+    <t>5731752431</t>
+  </si>
+  <si>
+    <t>5131757743</t>
+  </si>
+  <si>
+    <t>2500787745</t>
+  </si>
+  <si>
+    <t>5938415728</t>
+  </si>
+  <si>
+    <t>0352373990</t>
+  </si>
+  <si>
+    <t>8698287359</t>
+  </si>
+  <si>
+    <t>3333757687</t>
+  </si>
+  <si>
+    <t>7750779274</t>
+  </si>
+  <si>
+    <t>1227554203</t>
+  </si>
+  <si>
+    <t>2315389233</t>
+  </si>
+  <si>
+    <t>8951998491</t>
+  </si>
+  <si>
+    <t>0154261887</t>
+  </si>
+  <si>
+    <t>4513506486</t>
+  </si>
+  <si>
+    <t>8490656755</t>
+  </si>
+  <si>
+    <t>6963187389</t>
+  </si>
+  <si>
+    <t>6035641181</t>
+  </si>
+  <si>
+    <t>3025930051</t>
+  </si>
+  <si>
+    <t>1866622516</t>
+  </si>
+  <si>
+    <t>3087938090</t>
+  </si>
+  <si>
+    <t>9913527335</t>
+  </si>
+  <si>
+    <t>1359624562</t>
+  </si>
+  <si>
+    <t>4951701364</t>
+  </si>
+  <si>
+    <t>4612685582</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>2024-02-21 11:15:53 AM</t>
+  </si>
+  <si>
+    <t>2024-02-21 11:24:08 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,53 +1066,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
-    <col min="9" max="9" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="2"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.36328125" style="2" customWidth="1"/>
-    <col min="52" max="52" width="25.81640625" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" style="2" width="8.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="13" style="2" width="8.7265625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" style="2" width="8.7265625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" style="2" width="8.7265625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.90625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" customWidth="true" style="2" width="10.36328125"/>
+    <col min="52" max="52" customWidth="true" style="2" width="25.81640625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -1018,8 +1289,8 @@
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
+      <c r="F2" t="s" s="2">
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>95</v>
@@ -1042,14 +1313,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>92</v>
+      <c r="P2" t="s" s="2">
+        <v>229</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1087,14 +1358,14 @@
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>90</v>
+      <c r="AC2" t="s" s="2">
+        <v>228</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>87</v>
+      <c r="AE2" t="s" s="2">
+        <v>225</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1108,6 +1379,9 @@
       <c r="AI2" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="AK2" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1117,8 +1391,8 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>88</v>
+      <c r="AT2" t="s" s="2">
+        <v>226</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>100</v>
@@ -1129,8 +1403,8 @@
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>89</v>
+      <c r="AX2" t="s" s="2">
+        <v>227</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>102</v>
@@ -1161,54 +1435,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -1385,8 +1659,8 @@
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
+      <c r="F2" t="s" s="2">
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>104</v>
@@ -1409,14 +1683,14 @@
       <c r="M2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>93</v>
+      <c r="P2" t="s" s="2">
+        <v>230</v>
       </c>
       <c r="Q2" s="2">
         <v>55555555555</v>
@@ -1454,14 +1728,14 @@
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>90</v>
+      <c r="AC2" t="s" s="2">
+        <v>228</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>87</v>
+      <c r="AE2" t="s" s="2">
+        <v>225</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1484,8 +1758,8 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>88</v>
+      <c r="AT2" t="s" s="2">
+        <v>226</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1496,8 +1770,8 @@
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>89</v>
+      <c r="AX2" t="s" s="2">
+        <v>227</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>117</v>
@@ -1521,53 +1795,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -1744,8 +2018,8 @@
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
+      <c r="F2" t="s" s="2">
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>119</v>
@@ -1768,14 +2042,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>93</v>
+      <c r="P2" t="s" s="2">
+        <v>230</v>
       </c>
       <c r="Q2" s="2">
         <v>666666666</v>
@@ -1813,14 +2087,14 @@
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>90</v>
+      <c r="AC2" t="s" s="2">
+        <v>171</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>87</v>
+      <c r="AE2" t="s" s="2">
+        <v>225</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>79</v>
@@ -1843,8 +2117,8 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>88</v>
+      <c r="AT2" t="s" s="2">
+        <v>226</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>129</v>
@@ -1855,8 +2129,8 @@
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>89</v>
+      <c r="AX2" t="s" s="2">
+        <v>227</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>131</v>
@@ -1880,53 +2154,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -2103,8 +2377,8 @@
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
+      <c r="F2" t="s" s="2">
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>80</v>
@@ -2127,14 +2401,14 @@
       <c r="M2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>93</v>
+      <c r="P2" t="s" s="2">
+        <v>195</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -2172,14 +2446,14 @@
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>90</v>
+      <c r="AC2" t="s" s="2">
+        <v>171</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>87</v>
+      <c r="AE2" t="s" s="2">
+        <v>225</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>99</v>
@@ -2202,8 +2476,8 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>88</v>
+      <c r="AT2" t="s" s="2">
+        <v>226</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>84</v>
@@ -2214,8 +2488,8 @@
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>89</v>
+      <c r="AX2" t="s" s="2">
+        <v>227</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>85</v>

--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="149">
   <si>
     <t>ModuleName</t>
   </si>
@@ -243,9 +243,6 @@
     <t>SMSTemplate_Msg</t>
   </si>
   <si>
-    <t>Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation.</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -282,30 +279,9 @@
     <t>EditSales@rsoft.in</t>
   </si>
   <si>
-    <t>8230618709</t>
-  </si>
-  <si>
-    <t>4442809815</t>
-  </si>
-  <si>
-    <t>5069845530</t>
-  </si>
-  <si>
-    <t>0583850615</t>
-  </si>
-  <si>
-    <t>2024-01-08</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2024-01-08 02:06:48 PM</t>
-  </si>
-  <si>
-    <t>2024-01-08 02:14:54 PM</t>
-  </si>
-  <si>
     <t>Add New Text</t>
   </si>
   <si>
@@ -447,274 +423,52 @@
     <t>Lead about MobileApp</t>
   </si>
   <si>
-    <t>3054496971</t>
-  </si>
-  <si>
-    <t>7570043976</t>
-  </si>
-  <si>
-    <t>2953743365</t>
-  </si>
-  <si>
-    <t>4976436726</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2024-01-23</t>
-  </si>
-  <si>
-    <t>2024-01-23 12:54:52 PM</t>
-  </si>
-  <si>
-    <t>2024-01-23 01:03:53 PM</t>
-  </si>
-  <si>
-    <t>2089314263</t>
-  </si>
-  <si>
-    <t>6817654930</t>
-  </si>
-  <si>
-    <t>9975749296</t>
-  </si>
-  <si>
-    <t>4262667725</t>
-  </si>
-  <si>
-    <t>9523249659</t>
-  </si>
-  <si>
-    <t>4143219354</t>
-  </si>
-  <si>
-    <t>7854316613</t>
-  </si>
-  <si>
-    <t>0306452229</t>
-  </si>
-  <si>
-    <t>2269141644</t>
-  </si>
-  <si>
-    <t>5352129046</t>
-  </si>
-  <si>
-    <t>6710902693</t>
-  </si>
-  <si>
-    <t>5753084715</t>
-  </si>
-  <si>
-    <t>7581686750</t>
-  </si>
-  <si>
-    <t>0734638139</t>
-  </si>
-  <si>
-    <t>6093294828</t>
-  </si>
-  <si>
-    <t>4849348212</t>
-  </si>
-  <si>
-    <t>2024-01-23 02:50:42 PM</t>
-  </si>
-  <si>
-    <t>2024-01-23 02:58:00 PM</t>
-  </si>
-  <si>
-    <t>0320731177</t>
-  </si>
-  <si>
-    <t>3723286554</t>
-  </si>
-  <si>
-    <t>0107516670</t>
-  </si>
-  <si>
-    <t>2307242326</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2024-02-16 10:45:02 AM</t>
-  </si>
-  <si>
-    <t>3383547892</t>
-  </si>
-  <si>
-    <t>5549313496</t>
-  </si>
-  <si>
-    <t>4410137311</t>
-  </si>
-  <si>
-    <t>1607182956</t>
-  </si>
-  <si>
-    <t>2024-02-16 11:05:20 AM</t>
-  </si>
-  <si>
-    <t>3079717578</t>
-  </si>
-  <si>
-    <t>4302668826</t>
-  </si>
-  <si>
-    <t>1088188534</t>
-  </si>
-  <si>
-    <t>0147255501</t>
-  </si>
-  <si>
-    <t>2024-02-16 11:14:56 AM</t>
-  </si>
-  <si>
-    <t>2024-02-16 11:21:21 AM</t>
-  </si>
-  <si>
-    <t>6662063602</t>
-  </si>
-  <si>
-    <t>1304060830</t>
-  </si>
-  <si>
-    <t>9289789879</t>
-  </si>
-  <si>
-    <t>0473748842</t>
-  </si>
-  <si>
-    <t>2024-02-16 11:35:21 AM</t>
-  </si>
-  <si>
-    <t>2024-02-16 11:41:51 AM</t>
-  </si>
-  <si>
-    <t>6442762697</t>
-  </si>
-  <si>
-    <t>1863802921</t>
-  </si>
-  <si>
-    <t>5569233801</t>
-  </si>
-  <si>
-    <t>6376014794</t>
-  </si>
-  <si>
-    <t>2024-02-16 11:55:33 AM</t>
-  </si>
-  <si>
-    <t>2024-02-16 12:02:04 PM</t>
-  </si>
-  <si>
-    <t>6144307828</t>
-  </si>
-  <si>
-    <t>3999133860</t>
-  </si>
-  <si>
-    <t>7838841250</t>
-  </si>
-  <si>
-    <t>0071638138</t>
-  </si>
-  <si>
-    <t>1982503987</t>
-  </si>
-  <si>
-    <t>5041238076</t>
-  </si>
-  <si>
-    <t>5608599758</t>
-  </si>
-  <si>
-    <t>4337605175</t>
-  </si>
-  <si>
-    <t>4636768556</t>
-  </si>
-  <si>
-    <t>5731752431</t>
-  </si>
-  <si>
-    <t>5131757743</t>
-  </si>
-  <si>
-    <t>2500787745</t>
-  </si>
-  <si>
-    <t>5938415728</t>
-  </si>
-  <si>
-    <t>0352373990</t>
-  </si>
-  <si>
-    <t>8698287359</t>
-  </si>
-  <si>
-    <t>3333757687</t>
-  </si>
-  <si>
-    <t>7750779274</t>
-  </si>
-  <si>
-    <t>1227554203</t>
-  </si>
-  <si>
-    <t>2315389233</t>
-  </si>
-  <si>
-    <t>8951998491</t>
-  </si>
-  <si>
-    <t>0154261887</t>
-  </si>
-  <si>
-    <t>4513506486</t>
-  </si>
-  <si>
-    <t>8490656755</t>
-  </si>
-  <si>
-    <t>6963187389</t>
-  </si>
-  <si>
-    <t>6035641181</t>
-  </si>
-  <si>
-    <t>3025930051</t>
-  </si>
-  <si>
-    <t>1866622516</t>
-  </si>
-  <si>
-    <t>3087938090</t>
-  </si>
-  <si>
-    <t>9913527335</t>
-  </si>
-  <si>
-    <t>1359624562</t>
-  </si>
-  <si>
-    <t>4951701364</t>
-  </si>
-  <si>
-    <t>4612685582</t>
-  </si>
-  <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
-    <t>2024-02-21 11:15:53 AM</t>
-  </si>
-  <si>
-    <t>2024-02-21 11:24:08 AM</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>CurrentTime</t>
+  </si>
+  <si>
+    <t>2024-03-06 01:44:34 PM</t>
+  </si>
+  <si>
+    <t>CT. Wed, Mar 06, 2024 at 1:49 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 01:52:14 PM</t>
+  </si>
+  <si>
+    <t>CT. Wed, Mar 06, 2024 at 1:57 PM</t>
+  </si>
+  <si>
+    <t>CT. Wed, Mar 06, 2024 at 2:05 PM</t>
+  </si>
+  <si>
+    <t>4324529975</t>
+  </si>
+  <si>
+    <t>4009429147</t>
+  </si>
+  <si>
+    <t>4518943107</t>
+  </si>
+  <si>
+    <t>2819678667</t>
+  </si>
+  <si>
+    <t>7571439520</t>
+  </si>
+  <si>
+    <t>8441366716</t>
+  </si>
+  <si>
+    <t>4726587529</t>
+  </si>
+  <si>
+    <t>2297189724</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +815,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,8 +864,8 @@
     <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
     <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
     <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" customWidth="true" style="2" width="10.36328125"/>
-    <col min="52" max="52" customWidth="true" style="2" width="25.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
     <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
@@ -1270,7 +1024,7 @@
         <v>61</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
@@ -1284,22 +1038,22 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -1313,14 +1067,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>229</v>
+      <c r="N2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1332,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U2" s="2">
         <v>11111111111</v>
@@ -1347,25 +1101,25 @@
         <v>50</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>228</v>
+      <c r="AC2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1380,7 +1134,7 @@
         <v>67</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>
@@ -1392,25 +1146,25 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1394,7 @@
         <v>61</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -1654,43 +1408,43 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="Q2" s="2">
         <v>55555555555</v>
@@ -1702,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="U2" s="2">
         <v>44444444444</v>
@@ -1711,31 +1465,31 @@
         <v>20000</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>228</v>
+      <c r="AC2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1759,25 +1513,25 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2013,43 +1767,43 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>230</v>
+      <c r="N2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="Q2" s="2">
         <v>666666666</v>
@@ -2058,10 +1812,10 @@
         <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U2" s="2">
         <v>33333333333</v>
@@ -2070,34 +1824,34 @@
         <v>8000</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>171</v>
+      <c r="AC2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>68</v>
@@ -2118,25 +1872,25 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2112,7 @@
         <v>61</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -2372,43 +2126,43 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>195</v>
+      <c r="O2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -2417,10 +2171,10 @@
         <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="U2" s="2">
         <v>6666666666</v>
@@ -2429,34 +2183,34 @@
         <v>40000</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>171</v>
+      <c r="AC2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>68</v>
@@ -2477,25 +2231,25 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
   <si>
     <t>ModuleName</t>
   </si>
@@ -423,52 +423,58 @@
     <t>Lead about MobileApp</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2024-03-06</t>
   </si>
   <si>
     <t>CurrentTime</t>
   </si>
   <si>
-    <t>2024-03-06 01:44:34 PM</t>
-  </si>
-  <si>
-    <t>CT. Wed, Mar 06, 2024 at 1:49 PM</t>
-  </si>
-  <si>
     <t>2024-03-06 01:52:14 PM</t>
   </si>
   <si>
-    <t>CT. Wed, Mar 06, 2024 at 1:57 PM</t>
-  </si>
-  <si>
     <t>CT. Wed, Mar 06, 2024 at 2:05 PM</t>
   </si>
   <si>
-    <t>4324529975</t>
-  </si>
-  <si>
-    <t>4009429147</t>
-  </si>
-  <si>
-    <t>4518943107</t>
-  </si>
-  <si>
-    <t>2819678667</t>
-  </si>
-  <si>
-    <t>7571439520</t>
-  </si>
-  <si>
-    <t>8441366716</t>
-  </si>
-  <si>
-    <t>4726587529</t>
-  </si>
-  <si>
-    <t>2297189724</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-05-27 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, May 24, 2024 at 5:28 PM</t>
+  </si>
+  <si>
+    <t>1308055690</t>
+  </si>
+  <si>
+    <t>8924091092</t>
+  </si>
+  <si>
+    <t>4183240954</t>
+  </si>
+  <si>
+    <t>9372449024</t>
+  </si>
+  <si>
+    <t>CT: Fri, May 24, 2024 at 5:57 PM</t>
+  </si>
+  <si>
+    <t>3261763618</t>
+  </si>
+  <si>
+    <t>1572003229</t>
+  </si>
+  <si>
+    <t>5485056727</t>
+  </si>
+  <si>
+    <t>5501425979</t>
   </si>
 </sst>
 </file>
@@ -815,7 +821,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,8 +1029,8 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>135</v>
+      <c r="AZ1" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
@@ -1044,7 +1050,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -1068,13 +1074,13 @@
         <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1113,13 +1119,13 @@
         <v>47</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1134,7 +1140,7 @@
         <v>67</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>
@@ -1146,7 +1152,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>92</v>
@@ -1158,13 +1164,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>137</v>
+      <c r="AZ2" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1400,7 @@
         <v>61</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -1414,7 +1420,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>96</v>
@@ -1438,13 +1444,13 @@
         <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="2">
         <v>55555555555</v>
@@ -1483,13 +1489,13 @@
         <v>47</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1513,7 +1519,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>107</v>
@@ -1525,13 +1531,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1779,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>111</v>
@@ -1797,13 +1803,13 @@
         <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q2" s="2">
         <v>666666666</v>
@@ -1842,13 +1848,13 @@
         <v>47</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>78</v>
@@ -1872,7 +1878,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>121</v>
@@ -1884,7 +1890,7 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2112,7 +2118,7 @@
         <v>61</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -2132,7 +2138,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>79</v>
@@ -2156,13 +2162,13 @@
         <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -2201,13 +2207,13 @@
         <v>47</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -2231,7 +2237,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>83</v>
@@ -2243,13 +2249,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="190">
   <si>
     <t>ModuleName</t>
   </si>
@@ -475,6 +475,123 @@
   </si>
   <si>
     <t>5501425979</t>
+  </si>
+  <si>
+    <t>5323798946</t>
+  </si>
+  <si>
+    <t>1486540809</t>
+  </si>
+  <si>
+    <t>8429199210</t>
+  </si>
+  <si>
+    <t>4740651754</t>
+  </si>
+  <si>
+    <t>5827216557</t>
+  </si>
+  <si>
+    <t>5290040062</t>
+  </si>
+  <si>
+    <t>2992827932</t>
+  </si>
+  <si>
+    <t>4951577755</t>
+  </si>
+  <si>
+    <t>2478144177</t>
+  </si>
+  <si>
+    <t>3112188866</t>
+  </si>
+  <si>
+    <t>1074500286</t>
+  </si>
+  <si>
+    <t>0547819386</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-04-28 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 11:18 AM</t>
+  </si>
+  <si>
+    <t>6807832171</t>
+  </si>
+  <si>
+    <t>9665637567</t>
+  </si>
+  <si>
+    <t>4298629953</t>
+  </si>
+  <si>
+    <t>9126802701</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 11:35 AM</t>
+  </si>
+  <si>
+    <t>9120414700</t>
+  </si>
+  <si>
+    <t>3321774125</t>
+  </si>
+  <si>
+    <t>0457006885</t>
+  </si>
+  <si>
+    <t>4447502254</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 11:47 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 11:55 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 12:04 PM</t>
+  </si>
+  <si>
+    <t>0305177807</t>
+  </si>
+  <si>
+    <t>5725131934</t>
+  </si>
+  <si>
+    <t>8611387896</t>
+  </si>
+  <si>
+    <t>0374289525</t>
+  </si>
+  <si>
+    <t>0286115958</t>
+  </si>
+  <si>
+    <t>3049192532</t>
+  </si>
+  <si>
+    <t>5178268986</t>
+  </si>
+  <si>
+    <t>8330429640</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 12:48 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 12:56 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 1:05 PM</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1167,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -1073,14 +1190,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>140</v>
+      <c r="P2" t="s" s="2">
+        <v>165</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1118,14 +1235,14 @@
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>138</v>
+      <c r="AC2" t="s" s="2">
+        <v>163</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1152,7 +1269,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>92</v>
@@ -1164,13 +1281,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>146</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1516,7 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" t="s" s="2">
         <v>134</v>
       </c>
     </row>
@@ -1420,7 +1537,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>96</v>
@@ -1443,14 +1560,14 @@
       <c r="M2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>140</v>
+      <c r="P2" t="s" s="2">
+        <v>165</v>
       </c>
       <c r="Q2" s="2">
         <v>55555555555</v>
@@ -1488,14 +1605,14 @@
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>138</v>
+      <c r="AC2" t="s" s="2">
+        <v>163</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1519,7 +1636,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>107</v>
@@ -1531,13 +1648,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>146</v>
+      <c r="AZ2" t="s" s="2">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1758,8 +1875,8 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>72</v>
+      <c r="AZ1" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -1779,7 +1896,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>111</v>
@@ -1802,14 +1919,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>135</v>
+      <c r="N2" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>165</v>
       </c>
       <c r="Q2" s="2">
         <v>666666666</v>
@@ -1847,14 +1964,14 @@
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>133</v>
+      <c r="AC2" t="s" s="2">
+        <v>163</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>78</v>
@@ -1878,7 +1995,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>121</v>
@@ -1890,13 +2007,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>75</v>
+      <c r="AZ2" t="s" s="2">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2234,7 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" t="s" s="2">
         <v>134</v>
       </c>
     </row>
@@ -2138,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>79</v>
@@ -2161,14 +2278,14 @@
       <c r="M2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>135</v>
+      <c r="N2" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>165</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -2206,14 +2323,14 @@
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>133</v>
+      <c r="AC2" t="s" s="2">
+        <v>163</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -2237,7 +2354,7 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>83</v>
@@ -2249,13 +2366,13 @@
         <v>43</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>136</v>
+      <c r="AZ2" t="s" s="2">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="145">
   <si>
     <t>ModuleName</t>
   </si>
@@ -240,18 +240,12 @@
     <t>User3_MessageId</t>
   </si>
   <si>
-    <t>SMSTemplate_Msg</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>EditSales@rsoft.in</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Add New Text</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
     <t>SummaryAdd@rsoft.in</t>
   </si>
   <si>
-    <t>Madras9</t>
-  </si>
-  <si>
     <t>Telangana</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>one,two,three,four,five</t>
   </si>
   <si>
-    <t>New Value1</t>
-  </si>
-  <si>
     <t>Sikkim</t>
   </si>
   <si>
@@ -423,182 +408,61 @@
     <t>Lead about MobileApp</t>
   </si>
   <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
     <t>CurrentTime</t>
   </si>
   <si>
-    <t>2024-03-06 01:52:14 PM</t>
-  </si>
-  <si>
-    <t>CT. Wed, Mar 06, 2024 at 2:05 PM</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>2024-05-27 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, May 24, 2024 at 5:28 PM</t>
-  </si>
-  <si>
-    <t>1308055690</t>
-  </si>
-  <si>
-    <t>8924091092</t>
-  </si>
-  <si>
-    <t>4183240954</t>
-  </si>
-  <si>
-    <t>9372449024</t>
-  </si>
-  <si>
-    <t>CT: Fri, May 24, 2024 at 5:57 PM</t>
-  </si>
-  <si>
-    <t>3261763618</t>
-  </si>
-  <si>
-    <t>1572003229</t>
-  </si>
-  <si>
-    <t>5485056727</t>
-  </si>
-  <si>
-    <t>5501425979</t>
-  </si>
-  <si>
-    <t>5323798946</t>
-  </si>
-  <si>
-    <t>1486540809</t>
-  </si>
-  <si>
-    <t>8429199210</t>
-  </si>
-  <si>
-    <t>4740651754</t>
-  </si>
-  <si>
-    <t>5827216557</t>
-  </si>
-  <si>
-    <t>5290040062</t>
-  </si>
-  <si>
-    <t>2992827932</t>
-  </si>
-  <si>
-    <t>4951577755</t>
-  </si>
-  <si>
-    <t>2478144177</t>
-  </si>
-  <si>
-    <t>3112188866</t>
-  </si>
-  <si>
-    <t>1074500286</t>
-  </si>
-  <si>
-    <t>0547819386</t>
-  </si>
-  <si>
-    <t>2024-05-25</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>2024-04-28 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 11:18 AM</t>
-  </si>
-  <si>
-    <t>6807832171</t>
-  </si>
-  <si>
-    <t>9665637567</t>
-  </si>
-  <si>
-    <t>4298629953</t>
-  </si>
-  <si>
-    <t>9126802701</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 11:35 AM</t>
-  </si>
-  <si>
-    <t>9120414700</t>
-  </si>
-  <si>
-    <t>3321774125</t>
-  </si>
-  <si>
-    <t>0457006885</t>
-  </si>
-  <si>
-    <t>4447502254</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 11:47 AM</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 11:55 AM</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 12:04 PM</t>
-  </si>
-  <si>
-    <t>0305177807</t>
-  </si>
-  <si>
-    <t>5725131934</t>
-  </si>
-  <si>
-    <t>8611387896</t>
-  </si>
-  <si>
-    <t>0374289525</t>
-  </si>
-  <si>
-    <t>0286115958</t>
-  </si>
-  <si>
-    <t>3049192532</t>
-  </si>
-  <si>
-    <t>5178268986</t>
-  </si>
-  <si>
-    <t>8330429640</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 12:48 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 12:56 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, May 25, 2024 at 1:05 PM</t>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2024-07-13 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>9840052396</t>
+  </si>
+  <si>
+    <t>9840055816</t>
+  </si>
+  <si>
+    <t>9840099231</t>
+  </si>
+  <si>
+    <t>9840024669</t>
+  </si>
+  <si>
+    <t>CT: Wed, Jul 10, 2024 at 2:56 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Jul 10, 2024 at 3:03 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Jul 10, 2024 at 3:12 PM</t>
+  </si>
+  <si>
+    <t>Madras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,7 +515,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -937,62 +801,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" style="2" width="8.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="13" style="2" width="8.7265625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" style="2" width="8.7265625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" style="2" width="8.7265625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.90625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" style="2"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="2"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" style="2" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1146,11 +1010,11 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>134</v>
+      <c r="AZ1" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1161,22 +1025,22 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>183</v>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -1190,17 +1054,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>444444444</v>
+      <c r="N2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
@@ -1209,13 +1070,13 @@
         <v>38</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U2" s="2">
         <v>11111111111</v>
       </c>
-      <c r="V2" s="5">
-        <v>10000</v>
+      <c r="V2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>46</v>
@@ -1224,25 +1085,25 @@
         <v>50</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>163</v>
+      <c r="AC2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" t="s" s="2">
-        <v>184</v>
+      <c r="AE2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1256,8 +1117,8 @@
       <c r="AI2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" t="s" s="2">
-        <v>137</v>
+      <c r="AK2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>
@@ -1268,26 +1129,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" t="s" s="2">
-        <v>185</v>
+      <c r="AT2" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" t="s" s="2">
-        <v>186</v>
+      <c r="AX2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1306,63 +1167,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1516,11 +1377,11 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>134</v>
+      <c r="AZ1" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1531,46 +1392,43 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>183</v>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>55555555555</v>
+        <v>96</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
@@ -1579,40 +1437,40 @@
         <v>50</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U2" s="2">
         <v>44444444444</v>
       </c>
-      <c r="V2" s="5">
-        <v>20000</v>
+      <c r="V2" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>163</v>
+      <c r="AC2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" t="s" s="2">
-        <v>184</v>
+      <c r="AE2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1635,26 +1493,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" t="s" s="2">
-        <v>185</v>
+      <c r="AT2" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" t="s" s="2">
-        <v>186</v>
+      <c r="AX2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>188</v>
+        <v>105</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1666,62 +1524,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1875,11 +1733,11 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>134</v>
+      <c r="AZ1" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1890,91 +1748,88 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>183</v>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>666666666</v>
+      <c r="N2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U2" s="2">
         <v>33333333333</v>
       </c>
-      <c r="V2" s="5">
-        <v>8000</v>
+      <c r="V2" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>163</v>
+      <c r="AC2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" t="s" s="2">
-        <v>184</v>
+      <c r="AE2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>68</v>
@@ -1994,26 +1849,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" t="s" s="2">
-        <v>185</v>
+      <c r="AT2" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" t="s" s="2">
-        <v>186</v>
+      <c r="AX2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>189</v>
+        <v>118</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2025,62 +1880,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2234,11 +2089,11 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>134</v>
+      <c r="AZ1" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -2249,91 +2104,88 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>183</v>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="2">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>7777777777</v>
+        <v>96</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="U2" s="2">
         <v>6666666666</v>
       </c>
-      <c r="V2" s="5">
-        <v>40000</v>
+      <c r="V2" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>163</v>
+      <c r="AC2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" t="s" s="2">
-        <v>184</v>
+      <c r="AE2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>68</v>
@@ -2353,26 +2205,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" t="s" s="2">
-        <v>185</v>
+      <c r="AT2" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" t="s" s="2">
-        <v>186</v>
+      <c r="AX2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
+++ b/testData/SMS/WF4_Send_SMS_OOF_S_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="182">
   <si>
     <t>ModuleName</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Telangana</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>Sikkim</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>Prof.</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>Tripura</t>
   </si>
   <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>Ms.</t>
   </si>
   <si>
@@ -435,21 +426,6 @@
     <t>40000</t>
   </si>
   <si>
-    <t>9840052396</t>
-  </si>
-  <si>
-    <t>9840055816</t>
-  </si>
-  <si>
-    <t>9840099231</t>
-  </si>
-  <si>
-    <t>9840024669</t>
-  </si>
-  <si>
-    <t>CT: Wed, Jul 10, 2024 at 2:56 PM</t>
-  </si>
-  <si>
     <t>CT: Wed, Jul 10, 2024 at 3:03 PM</t>
   </si>
   <si>
@@ -457,12 +433,148 @@
   </si>
   <si>
     <t>Madras</t>
+  </si>
+  <si>
+    <t>09-01-2025</t>
+  </si>
+  <si>
+    <t>12-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>9840063466</t>
+  </si>
+  <si>
+    <t>9840005074</t>
+  </si>
+  <si>
+    <t>9840048479</t>
+  </si>
+  <si>
+    <t>9840079040</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 1:15 PM</t>
+  </si>
+  <si>
+    <t>9840027241</t>
+  </si>
+  <si>
+    <t>9840002100</t>
+  </si>
+  <si>
+    <t>9840038217</t>
+  </si>
+  <si>
+    <t>9840022703</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 1:31 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 1:40 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 1:51 PM</t>
+  </si>
+  <si>
+    <t>9840064643</t>
+  </si>
+  <si>
+    <t>9840079521</t>
+  </si>
+  <si>
+    <t>9840073532</t>
+  </si>
+  <si>
+    <t>9840031354</t>
+  </si>
+  <si>
+    <t>9840037939</t>
+  </si>
+  <si>
+    <t>9840093521</t>
+  </si>
+  <si>
+    <t>9840006757</t>
+  </si>
+  <si>
+    <t>9840059178</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 2:23 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 2:33 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 2:44 PM</t>
+  </si>
+  <si>
+    <t>9840037634</t>
+  </si>
+  <si>
+    <t>9840013803</t>
+  </si>
+  <si>
+    <t>9840038183</t>
+  </si>
+  <si>
+    <t>9840012415</t>
+  </si>
+  <si>
+    <t>9840062745</t>
+  </si>
+  <si>
+    <t>9840061665</t>
+  </si>
+  <si>
+    <t>9840002765</t>
+  </si>
+  <si>
+    <t>9840080691</t>
+  </si>
+  <si>
+    <t>9840092639</t>
+  </si>
+  <si>
+    <t>9840041362</t>
+  </si>
+  <si>
+    <t>9840051468</t>
+  </si>
+  <si>
+    <t>9840082733</t>
+  </si>
+  <si>
+    <t>9840013885</t>
+  </si>
+  <si>
+    <t>9840009899</t>
+  </si>
+  <si>
+    <t>9840061492</t>
+  </si>
+  <si>
+    <t>9840059283</t>
+  </si>
+  <si>
+    <t>9840009284</t>
+  </si>
+  <si>
+    <t>9840012410</t>
+  </si>
+  <si>
+    <t>9840092181</t>
+  </si>
+  <si>
+    <t>9840018733</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -802,58 +914,58 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2"/>
-    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="2"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="2"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="2"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" style="2" width="8.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="13" style="2" width="8.7109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" style="2" width="8.7109375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" style="2" width="8.7109375"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.85546875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1010,8 +1122,8 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>128</v>
+      <c r="AZ1" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -1030,8 +1142,8 @@
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>137</v>
+      <c r="F2" t="s" s="2">
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>84</v>
@@ -1054,14 +1166,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>132</v>
+      <c r="N2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
@@ -1076,7 +1188,7 @@
         <v>11111111111</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>46</v>
@@ -1096,14 +1208,14 @@
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>131</v>
+      <c r="AC2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>138</v>
+      <c r="AE2" t="s" s="2">
+        <v>179</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1117,8 +1229,8 @@
       <c r="AI2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>129</v>
+      <c r="AK2" t="s" s="2">
+        <v>126</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>
@@ -1129,8 +1241,8 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>139</v>
+      <c r="AT2" t="s" s="2">
+        <v>180</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>89</v>
@@ -1141,14 +1253,14 @@
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>140</v>
+      <c r="AX2" t="s" s="2">
+        <v>181</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>141</v>
+      <c r="AZ2" t="s" s="2">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1167,60 +1279,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1377,8 +1489,8 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>128</v>
+      <c r="AZ1" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -1397,8 +1509,8 @@
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>137</v>
+      <c r="F2" t="s" s="2">
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>93</v>
@@ -1410,25 +1522,25 @@
         <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>132</v>
+      <c r="N2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
@@ -1437,40 +1549,40 @@
         <v>50</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U2" s="2">
         <v>44444444444</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>131</v>
+      <c r="AC2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>138</v>
+      <c r="AE2" t="s" s="2">
+        <v>179</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -1493,26 +1605,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>139</v>
+      <c r="AT2" t="s" s="2">
+        <v>180</v>
       </c>
       <c r="AU2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>140</v>
+      <c r="AX2" t="s" s="2">
+        <v>181</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
+      </c>
+      <c r="AZ2" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1525,58 +1637,58 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1733,8 +1845,8 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>128</v>
+      <c r="AZ1" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -1748,49 +1860,49 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>137</v>
+      <c r="F2" t="s" s="2">
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>132</v>
+      <c r="N2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>75</v>
@@ -1799,34 +1911,34 @@
         <v>33333333333</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>131</v>
+      <c r="AC2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>138</v>
+      <c r="AE2" t="s" s="2">
+        <v>179</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>76</v>
@@ -1849,26 +1961,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>139</v>
+      <c r="AT2" t="s" s="2">
+        <v>180</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>140</v>
+      <c r="AX2" t="s" s="2">
+        <v>181</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
+      </c>
+      <c r="AZ2" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1880,59 +1992,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -2089,8 +2201,8 @@
       <c r="AY1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>128</v>
+      <c r="AZ1" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -2104,13 +2216,13 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>137</v>
+      <c r="F2" t="s" s="2">
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>77</v>
@@ -2125,64 +2237,64 @@
         <v>79</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>132</v>
+        <v>95</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U2" s="2">
         <v>6666666666</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>80</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>131</v>
+      <c r="AC2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>138</v>
+      <c r="AE2" t="s" s="2">
+        <v>179</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>88</v>
@@ -2205,26 +2317,26 @@
       <c r="AS2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>139</v>
+      <c r="AT2" t="s" s="2">
+        <v>180</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>140</v>
+      <c r="AX2" t="s" s="2">
+        <v>181</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>143</v>
+      <c r="AZ2" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
